--- a/jessica/Jessica_Complete_Infloww.xlsx
+++ b/jessica/Jessica_Complete_Infloww.xlsx
@@ -2315,7 +2315,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>can't stop thinking about earlier... are you around?</t>
+          <t>still thinking about our conversation... come back when you can</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>hey hope everything is okay 😊 come back when you can</t>
+          <t>hey, just checking in on you 😊</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>okay I guess you're busy... might delete this honestly it was only for you</t>
+          <t>I'm starting to think you forgot about me...</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>you need to see what I just did... you're gonna love it</t>
+          <t>literally just took something crazy and you're not even here to see it</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>hey? 😊</t>
+          <t>hey you 😊</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
@@ -3825,17 +3825,17 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>delay2</t>
+          <t>reveal2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>don't you dare finish before you see this 😊 trust me you want to wait</t>
+          <t>patience babe... I'm not showing you everything at once 😊 the best part is coming</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>DELAY variant.</t>
+          <t>REVEAL variant.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -3843,17 +3843,17 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>delay1</t>
+          <t>reveal1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>hold on... wait until you see what I'm about to send, trust me it's worth the wait</t>
+          <t>hold on... the next one is worth waiting for, trust me</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>DELAY.</t>
+          <t>REVEAL. Send next PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -3861,17 +3861,17 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>sync2</t>
+          <t>buildup2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>wait for me, let's finish this together... open this first</t>
+          <t>I'm taking my time... good things come to those who wait babe</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>SYNC variant.</t>
+          <t>BUILDUP variant.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -3879,17 +3879,17 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>sync1</t>
+          <t>buildup1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>I'm almost there too, stay with me... but you need to see this first</t>
+          <t>you want to see more? then you have to wait for it... 😊</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>SYNC. Final PPV.</t>
+          <t>BUILDUP. Final PPV.</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr"/>
@@ -3897,17 +3897,17 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>edge2</t>
+          <t>tease2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>hold on, not yet... I need you to stay with me a little longer</t>
+          <t>don't rush... I want you to enjoy every single moment of this</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>EDGE variant.</t>
+          <t>TEASE variant.</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr"/>
@@ -3915,17 +3915,17 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>edge1</t>
+          <t>tease1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>not yet... I'm not done with you 😊</t>
+          <t>not yet babe... I want to build this up more first 😊</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>EDGE. More PPVs left.</t>
+          <t>TEASE. More PPVs left. She controls the pace of revealing.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>more...</t>
+          <t>I need more</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>you have no idea what you're doing to me</t>
+          <t>I'm losing my mind because of you</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>don't stop</t>
+          <t>oh my god</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">

--- a/jessica/Jessica_Complete_Infloww.xlsx
+++ b/jessica/Jessica_Complete_Infloww.xlsx
@@ -659,7 +659,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>hold on one more</t>
+          <t>one sec</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>oh my god</t>
+          <t>oh god</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>give me a sec, I want to take something just for you</t>
+          <t>wait one sec, I want to take something just for you</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">

--- a/jessica/Jessica_Complete_Infloww.xlsx
+++ b/jessica/Jessica_Complete_Infloww.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>this is the most I've ever shown anyone... it's yours</t>
+          <t>I need you to see this babe... stay right here with me 💕</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>I want to finish this with you... stay with me</t>
+          <t>stay with me... I need to feel you close right now babe, please don't go</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr"/>
@@ -689,7 +689,7 @@
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>I can't stop... you make me feel things I didn't know I could feel on here</t>
+          <t>don't leave me like this babe... I need you right here, I've never felt this overwhelmed 💕</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr"/>
@@ -702,7 +702,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>oh god</t>
+          <t>I can't take this anymore 😊</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>I've never gone this far for anyone on here... you're the only one who makes me feel safe enough</t>
+          <t>this is the most I've ever shown anyone babe... it's all for you 💕</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>I want to show you how I look right now... but I'm scared it's too much</t>
+          <t>I need you to see me right now babe... I can't even describe what I'm feeling</t>
         </is>
       </c>
       <c r="C11" s="6" t="inlineStr"/>
@@ -766,7 +766,7 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>I'm lying here barely wearing anything and all I can think about is you looking at me</t>
+          <t>I'm touching myself over my underwear right now because of you and I've never felt anything this intense 💕</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>you have no idea what you're doing to me right now</t>
+          <t>you have no idea what you're doing to me right now babe... I'm pushing past every limit I have</t>
         </is>
       </c>
       <c r="C13" s="6" t="inlineStr"/>
@@ -796,7 +796,7 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>oh god</t>
+          <t>oh god 😊</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>I've never been this brave before... but you make me want to push my limits</t>
+          <t>look at what you're doing to me babe... I can't stop 💕</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>what would you want me to do?</t>
+          <t>what would you do if you were here with me right now babe? I need to hear it</t>
         </is>
       </c>
       <c r="C17" s="6" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>I keep thinking about what you'd do if you could see me right now</t>
+          <t>I'm lying here in barely anything and all I can think about is you looking at me like that 💕</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr"/>
@@ -877,7 +877,7 @@
       </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>talking to you is doing something to me right now I can't explain</t>
+          <t>but you make me feel so safe and I don't want to stop... my whole body is tingling babe</t>
         </is>
       </c>
       <c r="C19" s="6" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>did you see it? 😊</t>
+          <t>oh my god... I can't believe I actually showed you that 😊</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>I can't believe I'm doing this but here... this one is just for you</t>
+          <t>I want you to see me like this babe... please be gentle with me 💕</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>you're making me feel really confident right now... I want to show you more</t>
+          <t>I want to show you how I look right now babe... I've never felt this brave with anyone 💕</t>
         </is>
       </c>
       <c r="C23" s="6" t="inlineStr"/>
@@ -958,7 +958,7 @@
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>you really like that? I was so nervous to send it</t>
+          <t>I keep catching myself touching my neck and my skin feels so warm... everything feels different with you</t>
         </is>
       </c>
       <c r="C24" s="5" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>soo?? 😊</t>
+          <t>you really liked that? you have no idea how fast my heart is beating right now 😊</t>
         </is>
       </c>
       <c r="C25" s="6" t="inlineStr">

--- a/jessica/Jessica_Complete_Infloww.xlsx
+++ b/jessica/Jessica_Complete_Infloww.xlsx
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's okay, I'm just happy talking to you honestly</t>
+          <t>I'll keep it then, but just know I made it thinking about you</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I literally did this because of what you said to me, it wasn't random babe</t>
+          <t>I literally spent time making this because of what YOU said to me, this wasn't random content, this was for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>free? I don't just share this with anyone... you have to earn the special stuff</t>
+          <t>free? I don't just hand this out, you have to earn the best stuff from me</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I already sent you one for free remember? this one goes further 😊</t>
+          <t>baby I already gave you one for free remember? this one is on another level and you know it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>no pressure, I just enjoy our time together</t>
+          <t>okay I'll hold onto it, but it's got your name on it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I did this because of you specifically, because of our convo and that took courage</t>
+          <t>I recorded this because of our conversation, specifically because of YOU, it took effort and I did it for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>the best things aren't free babe 😊 but they're worth it</t>
+          <t>the best things aren't free baby, especially not what I just did</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>you already got a free one and this one is on another level trust me</t>
+          <t>you already got a free preview and this is ten times crazier, you know I don't do free twice</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>honestly it's fine, I like talking to you money or not... you do something to me</t>
+          <t>it's fine, you're still here and that's what matters to me right now</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>just send whatever you can babe, even a tiny amount, I just want you to see what you made me do</t>
+          <t>send whatever you can, even something small, I just need you to see what you made me do</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>not even like [small amount]? I really want you to see this one</t>
+          <t>not even [small amount]? I really want you to be the one who sees this</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1489,12 +1489,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>hey I totally get it, no pressure at all okay? 😊</t>
+          <t>I hear you baby, that's okay</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>EMPATHY. Still engaged → Step 2.</t>
+          <t>EMPATHY. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's totally okay, you being here is what matters to me</t>
+          <t>you being here talking to me is enough for now</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>send whatever feels right, even $1... I can't keep this from you</t>
+          <t>just send whatever feels right, I can't keep this from you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>what about just [small amount]? I really don't want you to miss this</t>
+          <t>what about just [small amount]? I'd hate for you to miss this one</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>that's totally fine, seriously don't worry about it 😊</t>
+          <t>okay don't stress about it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>just send whatever you want, even $1, I can't keep this to myself</t>
+          <t>send me whatever you want, literally anything, I just can't keep this to myself, you need to see it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>look this isn't about money... I just want you to see what you're doing to me right now</t>
+          <t>okay forget about money, this isn't about that, I need you to see what you're doing to me rn because I've never reacted like this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>that's totally fine I'm not trying to sell you anything, I just like talking to you 😊</t>
+          <t>that's fine, I'm not trying to sell you anything, I'm just enjoying this</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>ACCEPT. Continue flirting 4-5 msgs before Step 2.</t>
+          <t>ACCEPT. Continue sexting 4-5 msgs before Step 2.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>send me anything, even the smallest amount, I need you to see this</t>
+          <t>send anything, even the smallest amount, you need to see what you did to me</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>forget about money for a sec... I just want to share this with you, what I'm feeling is real</t>
+          <t>forget the money part for a sec, I want to share this moment with you because what you're making me feel is real</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>no worries at all, I don't care about that I'm just enjoying this 😊</t>
+          <t>no worries, I don't care about that rn, this convo is what I care about</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>ACCEPT. Continue 4-5 msgs before Step 2.</t>
+          <t>ACCEPT. Continue sexting 4-5 msgs before Step 2.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>figure it out soon babe, I'm in this mood and I don't know how long it's gonna last</t>
+          <t>figure it out soon because this mood I'm in right now isn't gonna last and I want you to have it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>try a different card? I really don't want you to miss this 😊</t>
+          <t>maybe try a different card? I really don't want you to miss this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>ALTERNATIVE. Still fails → Step 3.</t>
+          <t>ALTERNATIVE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1911,12 +1911,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>aw that's annoying, it happens though try again it usually works the second time</t>
+          <t>ugh that's annoying, try again baby it usually works the second time</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>RETRY. Still fails → Step 2.</t>
+          <t>RETRY. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>I want you to see this before I change my mind, I don't keep stuff like this around forever</t>
+          <t>baby fix it quick, I don't keep stuff like this around forever</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>do you have another card? I really want you to see this</t>
+          <t>do you have another card? because you really don't want to miss what I made for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>ugh that's so annoying, just try one more time it usually fixes itself</t>
+          <t>that happens sometimes, try one more time for me</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -2077,12 +2077,12 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay I'll behave... for now 😊 no promises though</t>
+          <t>alright I'll behave, for now... no promises though</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>ACCEPT.</t>
+          <t>ACCEPT. Door open.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I can't help it, there's something about you that's making me feel things right now</t>
+          <t>okay but I can't help it, there's something about you that keeps messing with my head</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>so tell me more about you... what do you do when you're not making me lose my focus?</t>
+          <t>so tell me more about you... what do you do when you're not making girls on the internet lose focus?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>SUBTLE TENSION. → Step 3 later.</t>
+          <t>SUBTLE. → Step 3 later.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2131,12 +2131,12 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>haha okay I got a little carried away, you're just so easy to talk to 😊</t>
+          <t>haha okay I got a little carried away, you're too easy to talk to</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>RESPECT. Still no → Step 2.</t>
+          <t>RESPECT. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="12" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>fine I'll stop but don't blame me if it happens again later 😊</t>
+          <t>fine I'll stop, but don't blame me when it happens again</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I'm trying to behave but you're making it really difficult, there's just something about you</t>
+          <t>I'm trying so hard to behave but you make it impossible</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>okay new topic, what's the most spontaneous thing you've ever done?</t>
+          <t>okay new topic, what's the most adventurous thing you've ever done?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2250,12 +2250,12 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>my bad I got ahead of myself, it's your fault for being so charming 😊</t>
+          <t>my bad I got ahead of myself, it's your fault for being this fun to talk to</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>RESPECT. Still no → Step 2.</t>
+          <t>RESPECT. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="12" t="inlineStr"/>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>RETAKE.</t>
+          <t>RETAKE. Resume main script.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but hold on you totally distracted me, I was about to tell you something</t>
+          <t>but wait you totally distracted me, I was about to say something and now you made me lose my train of thought</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2493,12 +2493,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>haha wait that's actually funny 😊</t>
+          <t>haha okay that's actually funny</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>ACKNOWLEDGE. → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt to what he said. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>OKAY focus, where was I... oh right</t>
+          <t>OKAY focus, where was I... oh yeah</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>wait no stop you're distracting me from what I was gonna show you</t>
+          <t>wait no stop, you're distracting me from what I was going to tell you</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2594,12 +2594,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>lol that's so random but I love it</t>
+          <t>omg okay random but I love it</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>ACKNOWLEDGE. → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I get it there's a lot of fake stuff on here, but you felt something in this convo right? because I definitely did</t>
+          <t>I get why you'd think that, there's a lot of fake stuff on here, but what we've been talking about felt real to me... didn't it feel real to you?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>test me, what do you want to know? I'm an open book</t>
+          <t>ask me anything, literally anything about my life, I'm an open book, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>lol do I sound like a bot to you? ask me anything, literally anything 😊</t>
+          <t>lol do I sound like a robot to you? beep boop... send $5 for human verification haha I'm kidding</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I know there's a lot of bots on here but what we've been talking about felt real to me. didn't it feel real to you?</t>
+          <t>I know there's a lot of bots out here but what we've been talking about... that felt different, you felt it too right?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>go ahead, ask me something only a real person would know</t>
+          <t>test me then, ask me something only a real person would know, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>wait you think I'm not real?? that's honestly the funniest thing anyone's said to me today 😊</t>
+          <t>wait you think I'm fake?? that might be the funniest thing anyone's said to me today</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2861,12 +2861,12 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I don't do that on here but what I'm about to show you is better than any call</t>
+          <t>I don't do that on here but what I'm about to show you is better than any call, you'll see</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>FIRM.</t>
+          <t>FIRM. No video calls.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have something way better for you though, trust me</t>
+          <t>I have something way better for you though, trust me you'll forget you even asked</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2897,12 +2897,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>haha maybe one day if you earn it but not yet 😊 I'm private about that</t>
+          <t>haha maybe one day if you earn it, but not yet</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DODGE. Still → Step 2.</t>
+          <t>DODGE. Model does NOT do video calls. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>that's not something I do on here but trust me what I have is way better</t>
+          <t>I don't do that here but trust me what I have is way better than my voice</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>how about instead I show you something that'll blow your mind?</t>
+          <t>how about instead of a call I show you something that'll actually blow your mind?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>hmm maybe but you gotta earn that first 😊</t>
+          <t>hmmm you gotta earn that first</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have exactly what you're looking for, you're gonna love it... [price]</t>
+          <t>I have it and you're gonna lose your mind... [price]</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE. NON-EXPLICIT custom: lingerie/tease only.</t>
+          <t>PRICE. Set based on content.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>ooh you want that? I might have something... actually I definitely do 😊</t>
+          <t>mmm you want that? I might have exactly what you're thinking of</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>you're not gonna be able to stop looking at this one</t>
+          <t>you're not gonna be able to stop watching this one</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I actually did something just like that, [price] and it's totally worth it</t>
+          <t>I made something just like that, [price] and it's worth every penny</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>ooh you have good taste... I think I know exactly what you want</t>
+          <t>ohhh you have good taste, I think I know exactly what you need</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me... I know what you want better than you do 😊</t>
+          <t>trust me, I know what you need better than you do</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3283,12 +3283,12 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>what I have might be even better honestly and literally no one else has seen it</t>
+          <t>what I have might be even crazier and literally no one else has seen it</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>ALTERNATIVE. → Step 3.</t>
+          <t>ALTERNATIVE + FOMO. → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>I don't have exactly that but I have something that'll make you forget you even asked 😊</t>
+          <t>I don't have exactly that but I have something that'll make you forget you even asked</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. If asking for explicit → never acknowledge, just redirect to what she HAS.</t>
+          <t>REDIRECT. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>just trust me on this one 😊</t>
+          <t>just trust me on this one, you'll thank me after</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>what I DO have is something no one has ever seen and I think it's even better than what you asked for</t>
+          <t>nobody has seen what I'm about to show you and I think it's better than what you asked for</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>I don't have that specific thing but I have something you're gonna love even more</t>
+          <t>hmm not exactly that but what I DO have is gonna hit even harder</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay but next time you have to wait for me, I have something insane planned</t>
+          <t>next time you have to wait for me, I have something crazy planned</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but wait I'm not done yet, don't you wanna see what I have next?</t>
+          <t>but I'm not done yet, you're really gonna leave me wanting more?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>already?? that's so hot honestly 😊</t>
+          <t>god that's so hot</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>next time you HAVE to hold on because what I have planned is on another level</t>
+          <t>okay but next time you hold on because what I have planned is way more intense</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>wait but I have one more thing to show you, you can't leave me hanging</t>
+          <t>wait I'm not done yet though, don't you want to see what happens next?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>wow really?? that's amazing knowing I did that to you</t>
+          <t>already?? that's hot</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3825,17 +3825,17 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>reveal2</t>
+          <t>delay2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>patience babe... I'm not showing you everything at once 😊 the best part is coming</t>
+          <t>don't you dare finish before you see this</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>REVEAL variant.</t>
+          <t>DELAY variant.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -3843,17 +3843,17 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>reveal1</t>
+          <t>delay1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>hold on... the next one is worth waiting for, trust me</t>
+          <t>hold it, I want you to wait until you see what I'm about to send, trust me it's worth the wait</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>REVEAL. Send next PPV.</t>
+          <t>DELAY. Send PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -3861,17 +3861,17 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>buildup2</t>
+          <t>sync2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>I'm taking my time... good things come to those who wait babe</t>
+          <t>wait for me, I want us to finish together, open this first</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>BUILDUP variant.</t>
+          <t>SYNC variant.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -3879,17 +3879,17 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>buildup1</t>
+          <t>sync1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>you want to see more? then you have to wait for it... 😊</t>
+          <t>I'm so close too, cum with me... but you need to see this first</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>BUILDUP. Final PPV.</t>
+          <t>SYNC. Send PPV.</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr"/>
@@ -3897,17 +3897,17 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>tease2</t>
+          <t>edge2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>don't rush... I want you to enjoy every single moment of this</t>
+          <t>hold it, not yet... I need you to last longer for me</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>TEASE variant.</t>
+          <t>EDGE variant.</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr"/>
@@ -3915,17 +3915,17 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>tease1</t>
+          <t>edge1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>not yet babe... I want to build this up more first 😊</t>
+          <t>don't cum yet, I'm not done with you</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>TEASE. More PPVs left. She controls the pace of revealing.</t>
+          <t>CONTROL.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>okay you just did something to me... give me a sec</t>
+          <t>okay you just made me do something, give me a sec</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
@@ -4003,12 +4003,12 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>you can't just send me that and expect me not to do something about it, hold on</t>
+          <t>you can't just send me that and expect me to do nothing about it, hold on...</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>LEVERAGE → send PPV.</t>
+          <t>LEVERAGE. WAIT 1-2 min then send PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>oh wow I wasn't expecting that but... I'm not complaining 😊</t>
+          <t>woah I wasn't expecting that but... damn okay</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>woah you don't waste time haha 😊 that's actually really flattering though</t>
+          <t>omg you don't waste time huh, that's actually really hot ngl</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>oh my god... okay I need to show you something right now</t>
+          <t>oh fuck that is... damn, I need to show you something rn</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -4075,7 +4075,7 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>oh wow... okay that's really hot. you have no idea what that just did to me</t>
+          <t>fuck okay that's... wow, you have no idea what that just did to me</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>I should be working but I can't focus on anything except you right now</t>
+          <t>I should be working but I literally can't stop thinking about you</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>BOOSTER. Jessica personality.</t>
+          <t>BOOSTER.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>I need more</t>
+          <t>more</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>I literally can't think straight right now</t>
+          <t>I can't focus on anything else rn</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>I'm losing my mind because of you</t>
+          <t>you have no idea what you're doing to me</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -4230,12 +4230,12 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>oh my god</t>
+          <t>don't stop talking to me like that</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>BOOSTER. Micro.</t>
+          <t>BOOSTER.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>I'm so turned on right now because of you</t>
+          <t>you're making me feel things rn</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
@@ -4266,12 +4266,12 @@
       </c>
       <c r="B9" s="13" t="inlineStr">
         <is>
-          <t>oh my god</t>
+          <t>god you're so hot</t>
         </is>
       </c>
       <c r="C9" s="13" t="inlineStr">
         <is>
-          <t>MID-SEXTING BOOSTER.</t>
+          <t>MID-SEXTING BOOSTER. Non-explicit.</t>
         </is>
       </c>
       <c r="D9" s="13" t="inlineStr"/>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's okay, I'm not going anywhere... I really like talking to you regardless</t>
+          <t>alright, I'll keep it then... but next time I'm in this mood you better be ready</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>okay what about [lower price] just for you because this convo has been really special to me</t>
+          <t>fine, [lower price] but only because you've been making me feel some type of way, don't tell anyone I did this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>I don't share this with just anyone... I thought you'd want to see</t>
+          <t>honestly? most guys couldn't handle what I just recorded... I thought you were different</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I'm in this mood because of you right now and I have no idea when it'll happen again</t>
+          <t>I'm literally dripping rn because of what you said and this mood isn't gonna last, don't miss it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>babe that's less than a coffee date and I promise this is way better 😊</t>
+          <t>babe that's less than your morning coffee and I promise this is gonna keep you up way longer</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>no pressure at all, I just like having you here</t>
+          <t>I'll hold onto it for now, but I know you're gonna come back for it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -4738,12 +4738,12 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>okay [lower price] because you genuinely make me feel special, keep that between us</t>
+          <t>look, [lower price] because I actually want YOU to have this one, I'm not doing this for anyone else</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>DOWNGRADE. Still no → Step 5.</t>
+          <t>DOWNGRADE. ONE TIME. Still no → Step 5.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>most guys would jump at this honestly, I thought you were different 😊</t>
+          <t>maybe you're just not ready for what I did... it's a lot</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I'm feeling so bold right now because of you and I really want you to see what that looks like</t>
+          <t>this mood won't last and I already picked YOU to share it with, don't make me regret that</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>honestly that's less than what you'd spend on lunch and this will stay with you way longer</t>
+          <t>baby it's literally nothing for what you're about to see, trust me you'll be thanking me after</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>if you don't want it that's okay, I'll keep it just for me then</t>
+          <t>okay I'll just save this for someone who actually wants it then, their loss isn't your gain though</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -4875,7 +4875,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>okay [lower price] just this once because I really like you, but don't tell anyone 😊</t>
+          <t>ugh fine, [lower price] ONLY because I like you but don't ever ask me this again</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>I only share this with guys who really appreciate what they're getting</t>
+          <t>the guys who get my best stuff don't ask for discounts, they know what they're getting</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>haha you're cute but I don't do discounts... what I'm sharing is worth it I promise</t>
+          <t>haha negotiate? baby this isn't a flea market... you already know this is worth every penny</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>okay I'll save it for someone who really wants it then</t>
+          <t>no worries, I'll keep it... someone else has been asking and they won't hesitate</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -4994,12 +4994,12 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>fine [lower price] but ONLY because you make me feel special, one time thing</t>
+          <t>okay [lower price] and that's ONLY because this convo has been different, first and last time</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CONCESSION. Still → Step 4.</t>
+          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -5012,7 +5012,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>the guys who really appreciate me don't ask for discounts, just saying</t>
+          <t>I don't do this for just anyone, and the ones who get it never complain about the price after</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -5030,7 +5030,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>a discount? babe do I look like I'm on sale? 😊</t>
+          <t>a discount? babe do I look like I'm on sale? you know exactly what you're getting</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">

--- a/jessica/Jessica_Complete_Infloww.xlsx
+++ b/jessica/Jessica_Complete_Infloww.xlsx
@@ -1192,7 +1192,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Seed</t>
+          <t>free1 Step4 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1210,7 +1210,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Guilt</t>
+          <t>free1 Step3 Guilt</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>free1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1246,7 +1246,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reminder</t>
+          <t>free1 Step1 Reminder</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1311,7 +1311,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Seed</t>
+          <t>free2 Step4 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Guilt</t>
+          <t>free2 Step3 Guilt</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1347,7 +1347,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>free2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1365,7 +1365,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reminder</t>
+          <t>free2 Step1 Reminder</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1430,7 +1430,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Protect</t>
+          <t>nomoney1 Step4 Protect</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1448,7 +1448,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>nomoney1 Step3 PWYW</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1466,7 +1466,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Test</t>
+          <t>nomoney1 Step2 Test</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1484,7 +1484,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Empathy</t>
+          <t>nomoney1 Step1 Empathy</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1549,7 +1549,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Protect</t>
+          <t>nomoney2 Step4 Protect</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1567,7 +1567,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>nomoney2 Step3 PWYW</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1585,7 +1585,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Test</t>
+          <t>nomoney2 Step2 Test</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1603,7 +1603,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Empathy</t>
+          <t>nomoney2 Step1 Empathy</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>noppv1 Step3 PWYW</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1686,7 +1686,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 Reframe</t>
+          <t>noppv1 Step2 Reframe</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Accept</t>
+          <t>noppv1 Step1 Accept</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1769,7 +1769,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>noppv2 Step3 PWYW</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1787,7 +1787,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 Reframe</t>
+          <t>noppv2 Step2 Reframe</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1805,7 +1805,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Accept</t>
+          <t>noppv2 Step1 Accept</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1870,7 +1870,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 Urgency</t>
+          <t>card1 Step3 Urgency</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 AltCard</t>
+          <t>card1 Step2 AltCard</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1906,7 +1906,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Retry</t>
+          <t>card1 Step1 Retry</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1971,7 +1971,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 Urgency</t>
+          <t>card2 Step3 Urgency</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1989,7 +1989,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 AltCard</t>
+          <t>card2 Step2 AltCard</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -2007,7 +2007,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Retry</t>
+          <t>card2 Step1 Retry</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -2072,7 +2072,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step4 Accept</t>
+          <t>nosex1 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2090,7 +2090,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step3 ReAttempt</t>
+          <t>nosex1 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2108,7 +2108,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step2 Subtle</t>
+          <t>nosex1 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2126,7 +2126,7 @@
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>Step1 Respect</t>
+          <t>nosex1 Step1 Respect</t>
         </is>
       </c>
       <c r="B5" s="12" t="inlineStr">
@@ -2191,7 +2191,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step4 Accept</t>
+          <t>nosex2 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2209,7 +2209,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step3 ReAttempt</t>
+          <t>nosex2 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2227,7 +2227,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step2 Subtle</t>
+          <t>nosex2 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2245,7 +2245,7 @@
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>Step1 Respect</t>
+          <t>nosex2 Step1 Respect</t>
         </is>
       </c>
       <c r="B5" s="12" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Retake</t>
+          <t>offtopic1 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2470,7 +2470,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>offtopic1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2488,7 +2488,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Acknowledge</t>
+          <t>offtopic1 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Retake</t>
+          <t>offtopic2 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2571,7 +2571,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>offtopic2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2589,7 +2589,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Acknowledge</t>
+          <t>offtopic2 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2654,7 +2654,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Grounding</t>
+          <t>real1 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2672,7 +2672,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>real1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2690,7 +2690,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Humor</t>
+          <t>real1 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2755,7 +2755,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Grounding</t>
+          <t>real2 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2773,7 +2773,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>real2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2791,7 +2791,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Humor</t>
+          <t>real2 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Firm</t>
+          <t>voice1 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2874,7 +2874,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>voice1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2892,7 +2892,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Dodge</t>
+          <t>voice1 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2957,7 +2957,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Firm</t>
+          <t>voice2 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2975,7 +2975,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>voice2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2993,7 +2993,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Dodge</t>
+          <t>voice2 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3058,7 +3058,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customyes1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3076,7 +3076,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Price</t>
+          <t>customyes1 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3094,7 +3094,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Tease</t>
+          <t>customyes1 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3159,7 +3159,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customyes2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3177,7 +3177,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Price</t>
+          <t>customyes2 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3195,7 +3195,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Tease</t>
+          <t>customyes2 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3260,7 +3260,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customno1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3278,7 +3278,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Alternative</t>
+          <t>customno1 Step2 Alternative</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3296,7 +3296,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Redirect</t>
+          <t>customno1 Step1 Redirect</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3361,7 +3361,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customno2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3379,7 +3379,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Alternative</t>
+          <t>customno2 Step2 Alternative</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3397,7 +3397,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Redirect</t>
+          <t>customno2 Step1 Redirect</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3623,7 +3623,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Seed</t>
+          <t>done1 Step3 Seed</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3641,7 +3641,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Rescue</t>
+          <t>done1 Step2 Rescue</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3659,7 +3659,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Validate</t>
+          <t>done1 Step1 Validate</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3724,7 +3724,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Seed</t>
+          <t>done2 Step3 Seed</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3742,7 +3742,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Rescue</t>
+          <t>done2 Step2 Rescue</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3760,7 +3760,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Validate</t>
+          <t>done2 Step1 Validate</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3825,7 +3825,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>delay2</t>
+          <t>cumcontrol delay2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -3843,7 +3843,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>delay1</t>
+          <t>cumcontrol delay1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -3861,7 +3861,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>sync2</t>
+          <t>cumcontrol sync2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -3879,7 +3879,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>sync1</t>
+          <t>cumcontrol sync1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -3897,7 +3897,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>edge2</t>
+          <t>cumcontrol edge2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -3915,7 +3915,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>edge1</t>
+          <t>cumcontrol edge1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -3980,7 +3980,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>dpppv2</t>
+          <t>dickpic dpppv2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -3998,7 +3998,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>dpppv1</t>
+          <t>dickpic dpppv1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -4016,7 +4016,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>dprapport2</t>
+          <t>dickpic dprapport2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -4034,7 +4034,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>dprapport1</t>
+          <t>dickpic dprapport1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -4052,7 +4052,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>dpsext2</t>
+          <t>dickpic dpsext2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -4070,7 +4070,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>dpsext1</t>
+          <t>dickpic dpsext1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4135,7 +4135,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>h8</t>
+          <t>boosters h8</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -4153,7 +4153,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>h7</t>
+          <t>boosters h7</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -4171,7 +4171,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>h6</t>
+          <t>boosters h6</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -4189,7 +4189,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>h5</t>
+          <t>boosters h5</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -4207,7 +4207,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>h4</t>
+          <t>boosters h4</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -4225,7 +4225,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>h3</t>
+          <t>boosters h3</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4243,7 +4243,7 @@
     <row r="8">
       <c r="A8" s="13" t="inlineStr">
         <is>
-          <t>h2</t>
+          <t>boosters h2</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -4261,7 +4261,7 @@
     <row r="9">
       <c r="A9" s="13" t="inlineStr">
         <is>
-          <t>h1</t>
+          <t>boosters h1</t>
         </is>
       </c>
       <c r="B9" s="13" t="inlineStr">
@@ -4578,7 +4578,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step5 Seed</t>
+          <t>price1 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4596,7 +4596,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step4 Downgrade</t>
+          <t>price1 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4614,7 +4614,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step3 Challenge</t>
+          <t>price1 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4632,7 +4632,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step2 FOMO</t>
+          <t>price1 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -4650,7 +4650,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reframe</t>
+          <t>price1 Step1 Reframe</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
@@ -4715,7 +4715,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step5 Seed</t>
+          <t>price2 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4733,7 +4733,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step4 Downgrade</t>
+          <t>price2 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4751,7 +4751,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step3 Challenge</t>
+          <t>price2 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4769,7 +4769,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step2 FOMO</t>
+          <t>price2 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -4787,7 +4787,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reframe</t>
+          <t>price2 Step1 Reframe</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
@@ -4852,7 +4852,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Takeaway</t>
+          <t>discount1 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4870,7 +4870,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Concession</t>
+          <t>discount1 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4888,7 +4888,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>discount1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4906,7 +4906,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Firmness</t>
+          <t>discount1 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -4971,7 +4971,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Takeaway</t>
+          <t>discount2 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4989,7 +4989,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Concession</t>
+          <t>discount2 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -5007,7 +5007,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>discount2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -5025,7 +5025,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Firmness</t>
+          <t>discount2 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
